--- a/Ontology/Factory/Data.xlsx
+++ b/Ontology/Factory/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Desktop\workable_check\toocool\rp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\GitHub\DigitalTwin\Ontology\Factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528B2B07-7E1C-4782-8894-D9EB63D1A6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F3F752-2472-42BE-8686-14A9990AA452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="122">
   <si>
     <t>ModelID</t>
   </si>
@@ -307,19 +307,51 @@
   </si>
   <si>
     <t>PalletStretchMachine10</t>
+  </si>
+  <si>
+    <t>{
+   "RoomTemperature": 25,
+   "RoomHumidity": 60,
+   "RoomArea": 20000,
+   "NumberofRobotPalletizers": 5
+}</t>
+  </si>
+  <si>
+    <t>{
+   "RoomTemperature": 27,
+   "RoomHumidity": 63,
+   "RoomArea": 20000,
+   "NumberofRobotPalletizers": 5
+}</t>
+  </si>
+  <si>
+    <t>{
+    "ConveyorBeltSpeed": 0.5
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "LightCurtainResolution": 0.01,
+    "LightCurtainRange": 10
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "PalletTurnTableRotationSpeed": 2
+  }</t>
   </si>
   <si>
     <t>{
    "Address": {
-      "Street": "21, Truehla Industrial Area",
-      "City": "Delhi",
-      "State": "Delhi",
-      "Country": "India",
-      "Zip": 110001
+      "Street": "Bela-Barenyi-Straße",
+      "City": "Stuttgart",
+      "State": "Sindelfingen",
+      "Country": "Germany",
+      "Zip": 70546
    },
    "GeographicalCoordinates": {
-      "Latitude": 28.6139,
-      "Longitude": 77.2090
+      "Latitude": 48.7075,
+      "Longitude": 9.0044
    },
    "Altitude": 50,
    "SiteArea": 20000,
@@ -328,28 +360,45 @@
 }</t>
   </si>
   <si>
+    <t>{"RoboticPalletizerID": "DT-RP001"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP002"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP003"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP004"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP005"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP006"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP007"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP008"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP009"}</t>
+  </si>
+  <si>
+    <t>{"RoboticPalletizerID": "DT-RP010"}</t>
+  </si>
+  <si>
     <t>{
-   "RoomTemperature": 25,
-   "RoomHumidity": 60,
-   "RoomArea": 20000,
-   "NumberofRobotPalletizers": 5
+    "DoorLastAccessedTime": "2023-09-22 14:30:00",
+    "DoorStatus": true
 }</t>
   </si>
   <si>
     <t>{
-   "RoomTemperature": 27,
-   "RoomHumidity": 63,
-   "RoomArea": 20000,
-   "NumberofRobotPalletizers": 5
-}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F0P1"}</t>
-  </si>
-  <si>
-    <t>{
-    "RoboticArmID": "RA-12345",
-    "RoboticArmStatus": "Active",
+    "RoboticArmID": "DT-RP001-RA-001",
+    "RoboticArmStatus": true,
     "RoboticArmPowerConsumption": 500,
     "RoboticArmOperatingSpeed": 60,
     "RoboticArmLoadCapacity": 1000
@@ -357,55 +406,91 @@
   </si>
   <si>
     <t>{
-    "ConveyorBeltSpeed": 0.5
+    "RoboticArmID": "DT-RP002-RA-002",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
   }</t>
   </si>
   <si>
     <t>{
-    "LightCurtainResolution": 0.01,
-    "LightCurtainRange": 10
- }</t>
+    "RoboticArmID": "DT-RP003-RA-003",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
+  }</t>
   </si>
   <si>
     <t>{
-    "PalletTurnTableRotationSpeed": 2
+    "RoboticArmID": "DT-RP004-RA-004",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
   }</t>
   </si>
   <si>
     <t>{
-    "DoorLastAccessedTime": "2023-09-22 14:30:00"
+    "RoboticArmID": "DT-RP005-RA-005",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
   }</t>
   </si>
   <si>
-    <t>{ "PalletStretchMachineWrappingSpeed": 30,   "PalletStretchMachineWrappingFilmUsage": 150
+    <t>{
+    "RoboticArmID": "DT-RP006-RA-006",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
   }</t>
   </si>
   <si>
-    <t>{"RoboticPalletizerID": "F0P2"}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F0P3"}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F0P4"}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F1P10"}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F1P9"}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F1P8"}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F1P7"}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F0P5"}</t>
-  </si>
-  <si>
-    <t>{"RoboticPalletizerID": "F1P6"}</t>
+    <t>{
+    "RoboticArmID": "DT-RP007-RA-007",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "RoboticArmID": "DT-RP008-RA-008",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "RoboticArmID": "DT-RP009-RA-009",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "RoboticArmID": "DT-RP010-RA-010",
+    "RoboticArmStatus": true,
+    "RoboticArmPowerConsumption": 500,
+    "RoboticArmOperatingSpeed": 60,
+    "RoboticArmLoadCapacity": 1000
+  }</t>
+  </si>
+  <si>
+    <t>{
+  "PalletStretchMachineWrappingSpeed": 30,
+  "PalletStretchMachineWrappingFilmUsage": 150,
+  "PalletStretchMachineWrappingFilmRollStatus": true
+}</t>
   </si>
 </sst>
 </file>
@@ -797,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4B3A2-EF53-41B2-9F0F-6F5502ACE162}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="66" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -835,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -852,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -869,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -886,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -903,7 +988,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -920,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -937,10 +1022,10 @@
         <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -954,10 +1039,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -971,10 +1056,10 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -988,7 +1073,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,10 +1090,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1022,7 +1107,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1039,7 +1124,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1056,7 +1141,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1073,10 +1158,10 @@
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1090,10 +1175,10 @@
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1192,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1124,10 +1209,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1141,7 +1226,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1158,7 +1243,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1175,7 +1260,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1192,10 +1277,10 @@
         <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1209,10 +1294,10 @@
         <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +1311,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1243,10 +1328,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1345,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1277,7 +1362,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1294,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1311,10 +1396,10 @@
         <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1328,10 +1413,10 @@
         <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1345,7 +1430,7 @@
         <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1362,10 +1447,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1396,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1413,7 +1498,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1430,10 +1515,10 @@
         <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1447,10 +1532,10 @@
         <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1464,7 +1549,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1481,10 +1566,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1583,7 @@
         <v>33</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1515,7 +1600,7 @@
         <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1532,7 +1617,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1549,10 +1634,10 @@
         <v>36</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1566,10 +1651,10 @@
         <v>32</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1583,7 +1668,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1600,10 +1685,10 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1634,7 +1719,7 @@
         <v>34</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1651,7 +1736,7 @@
         <v>35</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1668,10 +1753,10 @@
         <v>36</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -1685,10 +1770,10 @@
         <v>32</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1787,7 @@
         <v>37</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1719,10 +1804,10 @@
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1736,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1753,7 +1838,7 @@
         <v>34</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1770,7 +1855,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1787,10 +1872,10 @@
         <v>36</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1804,10 +1889,10 @@
         <v>32</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -1821,7 +1906,7 @@
         <v>37</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1841,7 +1926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -1855,7 +1940,7 @@
         <v>33</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1872,7 +1957,7 @@
         <v>34</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1889,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1906,10 +1991,10 @@
         <v>36</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -1923,10 +2008,10 @@
         <v>32</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -1940,7 +2025,7 @@
         <v>37</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1957,10 +2042,10 @@
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1974,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1991,7 +2076,7 @@
         <v>34</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -2008,7 +2093,7 @@
         <v>35</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2025,10 +2110,10 @@
         <v>36</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2042,10 +2127,10 @@
         <v>32</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2059,7 +2144,7 @@
         <v>37</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Ontology/Factory/Data.xlsx
+++ b/Ontology/Factory/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\GitHub\DigitalTwin\Ontology\Factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F3F752-2472-42BE-8686-14A9990AA452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC56DD20-D2DB-41C3-B069-38AB65AE3E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>dtmi:DigitalTwin:ConveyorBelt;1</t>
-  </si>
-  <si>
-    <t>ConveyerBelt1</t>
   </si>
   <si>
     <t>dtmi:DigitalTwin:LightCurtainSensor;1</t>
@@ -491,6 +488,9 @@
   "PalletStretchMachineWrappingFilmUsage": 150,
   "PalletStretchMachineWrappingFilmRollStatus": true
 }</t>
+  </si>
+  <si>
+    <t>ConveyorBelt1</t>
   </si>
 </sst>
 </file>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4B3A2-EF53-41B2-9F0F-6F5502ACE162}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -985,10 +985,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -996,84 +996,84 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -1098,16 +1098,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1115,84 +1115,84 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1209,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -1217,16 +1217,16 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1234,84 +1234,84 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1319,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1328,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -1336,16 +1336,16 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1353,84 +1353,84 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -1455,16 +1455,16 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1472,84 +1472,84 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1557,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -1566,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -1574,16 +1574,16 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1591,84 +1591,84 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1676,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1685,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -1693,16 +1693,16 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1710,84 +1710,84 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -1812,16 +1812,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1829,84 +1829,84 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1914,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -1931,16 +1931,16 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1948,84 +1948,84 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -2042,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -2050,16 +2050,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2067,84 +2067,84 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
